--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Tolliver.011321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Tolliver.011321.xlsx_with_dialog_acts.xlsx
@@ -643,12 +643,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -895,12 +895,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1777,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1945,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2365,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4053,12 +4053,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4683,12 +4683,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4977,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5019,12 +5019,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5103,12 +5103,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5187,12 +5187,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6485,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7283,12 +7283,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7325,12 +7325,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7493,12 +7493,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7913,12 +7913,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7955,12 +7955,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8207,12 +8207,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8459,12 +8459,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8627,12 +8627,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8921,12 +8921,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9929,12 +9929,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10097,12 +10097,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10139,12 +10139,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10265,12 +10265,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11105,12 +11105,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12869,12 +12869,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12989,12 +12989,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13033,12 +13033,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13797,12 +13797,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13997,12 +13997,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15077,12 +15077,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15157,12 +15157,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15397,12 +15397,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16397,12 +16397,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17357,12 +17357,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17841,12 +17841,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18245,12 +18245,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18565,12 +18565,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18605,12 +18605,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18685,12 +18685,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18845,12 +18845,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19005,12 +19005,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19289,12 +19289,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19369,12 +19369,12 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19409,12 +19409,12 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19653,12 +19653,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19933,12 +19933,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20213,12 +20213,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20413,12 +20413,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20973,12 +20973,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21013,12 +21013,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21053,12 +21053,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22133,12 +22133,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22413,12 +22413,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
